--- a/pred_ohlcv/54_21/2020-01-16 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 EOS ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-60070.45623525999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-98638.25133525999</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-86030.94282778999</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-68504.57479108998</v>
       </c>
       <c r="H21">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>-62633.82006885996</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>-59000.26766669996</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-60581.68465919996</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-56582.31616669996</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>329276.9181793201</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>319532.26447932</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>317651.54977932</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>304948.10271785</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>314476.48291785</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>319630.04301785</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>311661.02711785</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>311661.02711785</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>309863.20511785</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>310143.30281785</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>318302.73421785</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>319669.23541785</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>317223.03899163</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>361352.57329163</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>323304.78029163</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>344866.73339187</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>344866.73339187</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>344866.73339187</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>322711.9960141</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>337502.8810141</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>367419.0574141</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>380748.1583141</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>401613.49177077</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>426883.6821543</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>464691.60266226</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>527697.22853687</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>602636.23964136</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>684015.20804136</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>808039.5605631201</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>884091.0800670001</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>982258.4715451902</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>963675.1751451902</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>911894.5621925602</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>981943.2742082401</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>971879.2952352001</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>982578.4715252301</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1009425.64813826</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>993999.6992542502</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>997099.8807542501</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>972973.7353542501</v>
       </c>
       <c r="H142">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>996697.5784444801</v>
       </c>
       <c r="H143">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>984275.5066787101</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>992898.4008787101</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>989645.44147871</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>980729.51337871</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>982008.28937871</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>977785.2774787099</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>983111.3356787099</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>1010108.267306</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-16 EOS ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-16 EOS ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-60070.45623525999</v>
       </c>
       <c r="H11">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-98638.25133525999</v>
       </c>
       <c r="H12">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-86030.94282778999</v>
       </c>
       <c r="H13">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-82699.12682778998</v>
       </c>
       <c r="H14">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -938,7 +938,7 @@
         <v>-68504.57479108998</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>-62443.54306669996</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>-63622.33576669996</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-54341.98436669996</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>-52742.81396669996</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>329276.9181793201</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>319532.26447932</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>317651.54977932</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>304948.10271785</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>314476.48291785</v>
       </c>
       <c r="H88">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>319630.04301785</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>311661.02711785</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>311661.02711785</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>309863.20511785</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>310143.30281785</v>
       </c>
       <c r="H93">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>318302.73421785</v>
       </c>
       <c r="H94">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>319669.23541785</v>
       </c>
       <c r="H95">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>317223.03899163</v>
       </c>
       <c r="H96">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>361352.57329163</v>
       </c>
       <c r="H97">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>323304.78029163</v>
       </c>
       <c r="H98">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>344866.73339187</v>
       </c>
       <c r="H99">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>344866.73339187</v>
       </c>
       <c r="H100">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>344866.73339187</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>322711.9960141</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>337502.8810141</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>367419.0574141</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>380748.1583141</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>401613.49177077</v>
       </c>
       <c r="H106">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>426883.6821543</v>
       </c>
       <c r="H107">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>464691.60266226</v>
       </c>
       <c r="H108">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>527697.22853687</v>
       </c>
       <c r="H109">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>602636.23964136</v>
       </c>
       <c r="H110">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>684015.20804136</v>
       </c>
       <c r="H111">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>808039.5605631201</v>
       </c>
       <c r="H112">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>884091.0800670001</v>
       </c>
       <c r="H113">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>982258.4715451902</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>1008202.73314519</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>976975.7019451902</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>963675.1751451902</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>911894.5621925602</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>944237.8758498601</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>911980.9939095401</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>949196.8779095401</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>969090.3010361901</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>981943.2742082401</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>971879.2952352001</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>982578.4715252301</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>1009425.64813826</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>993999.6992542502</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>997099.8807542501</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>972973.7353542501</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>996697.5784444801</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>984275.5066787101</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>992898.4008787101</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>989645.44147871</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>980729.51337871</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>984390.65217871</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>982008.28937871</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>977785.2774787099</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>983111.3356787099</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
